--- a/data/impact-data/impact-data-mali.xlsx
+++ b/data/impact-data/impact-data-mali.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vwold\Documents\510\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vwold\Documents\510\floods_repo\data\impact-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A509BA9-EF73-4EDA-8B00-1BA7DCE8EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FFC2DE-7C96-4F00-BE04-92ECA0E91D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{891A7874-F37A-4BD5-9219-B163D37D2E1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{891A7874-F37A-4BD5-9219-B163D37D2E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,26 +535,26 @@
   <dimension ref="B2:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="85.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -600,7 +600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -617,7 +617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -665,12 +665,12 @@
       </c>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>44764</v>
+        <v>45495</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -715,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>4</v>
       </c>
@@ -732,7 +732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>9</v>
       </c>
